--- a/data_entry.xlsx
+++ b/data_entry.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
   <si>
     <t>SF Number</t>
   </si>
@@ -46,7 +46,148 @@
     <t>Other Details</t>
   </si>
   <si>
-    <t>1018</t>
+    <t>Radio 0</t>
+  </si>
+  <si>
+    <t>Radio 1</t>
+  </si>
+  <si>
+    <t>Radio 2</t>
+  </si>
+  <si>
+    <t>Radio 3</t>
+  </si>
+  <si>
+    <t>Radio 4</t>
+  </si>
+  <si>
+    <t>Radio 5</t>
+  </si>
+  <si>
+    <t>Radio 6</t>
+  </si>
+  <si>
+    <t>Radio 7</t>
+  </si>
+  <si>
+    <t>Radio1 0</t>
+  </si>
+  <si>
+    <t>Radio1 1</t>
+  </si>
+  <si>
+    <t>Radio1 2</t>
+  </si>
+  <si>
+    <t>Radio1 3</t>
+  </si>
+  <si>
+    <t>Radio2 0</t>
+  </si>
+  <si>
+    <t>Radio2 1</t>
+  </si>
+  <si>
+    <t>Radio2 2</t>
+  </si>
+  <si>
+    <t>Radio2 3</t>
+  </si>
+  <si>
+    <t>Radio2 4</t>
+  </si>
+  <si>
+    <t>Radio2 5</t>
+  </si>
+  <si>
+    <t>Radio2 6</t>
+  </si>
+  <si>
+    <t>Radio2 7</t>
+  </si>
+  <si>
+    <t>Radio3 0</t>
+  </si>
+  <si>
+    <t>Radio3 1</t>
+  </si>
+  <si>
+    <t>Radio3 2</t>
+  </si>
+  <si>
+    <t>Radio3 3</t>
+  </si>
+  <si>
+    <t>Radio3 4</t>
+  </si>
+  <si>
+    <t>Radio3 5</t>
+  </si>
+  <si>
+    <t>Radio4 0</t>
+  </si>
+  <si>
+    <t>Radio4 1</t>
+  </si>
+  <si>
+    <t>Radio4 2</t>
+  </si>
+  <si>
+    <t>Radio4 3</t>
+  </si>
+  <si>
+    <t>Radio4 4</t>
+  </si>
+  <si>
+    <t>Radio4 5</t>
+  </si>
+  <si>
+    <t>Radio4 6</t>
+  </si>
+  <si>
+    <t>Radio4 7</t>
+  </si>
+  <si>
+    <t>Radio4 8</t>
+  </si>
+  <si>
+    <t>Radio4 9</t>
+  </si>
+  <si>
+    <t>Radio5 0</t>
+  </si>
+  <si>
+    <t>Radio5 1</t>
+  </si>
+  <si>
+    <t>Radio5 2</t>
+  </si>
+  <si>
+    <t>Radio5 3</t>
+  </si>
+  <si>
+    <t>Radio5 4</t>
+  </si>
+  <si>
+    <t>Radio5 5</t>
+  </si>
+  <si>
+    <t>Radio5 6</t>
+  </si>
+  <si>
+    <t>Radio6 0</t>
+  </si>
+  <si>
+    <t>Radio6 1</t>
+  </si>
+  <si>
+    <t>Radio6 2</t>
+  </si>
+  <si>
+    <t>Radio6 3</t>
+  </si>
+  <si>
+    <t>1022</t>
   </si>
   <si>
     <t>Site 2</t>
@@ -437,13 +578,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:BE7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:57">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,63 +615,548 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:57">
       <c r="A2">
         <v>1017</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>10</v>
+    <row r="3" spans="1:57">
+      <c r="A3">
+        <v>1018</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57">
+      <c r="A4">
+        <v>1019</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:57">
+      <c r="A5">
+        <v>1020</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57">
+      <c r="A6">
+        <v>1021</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>1</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>1</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>1</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:57">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>1</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>1</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data_entry.xlsx
+++ b/data_entry.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tom\Documents\GitHub\Lithic_Analysis_Tool\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D733E77C-5E3A-4E8F-8462-46B4528F0EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>SF Number</t>
   </si>
@@ -47,13 +41,49 @@
   </si>
   <si>
     <t>Other details</t>
+  </si>
+  <si>
+    <t>1066</t>
+  </si>
+  <si>
+    <t>Site 2</t>
+  </si>
+  <si>
+    <t>3. Bladelet</t>
+  </si>
+  <si>
+    <t>7. Microburin</t>
+  </si>
+  <si>
+    <t>1. Fresh</t>
+  </si>
+  <si>
+    <t>5. Plough damaged</t>
+  </si>
+  <si>
+    <t>2. Light cortication</t>
+  </si>
+  <si>
+    <t>1. No cortication</t>
+  </si>
+  <si>
+    <t>10. Indeterminate (if you can’t decide or it doesn’t fit any of the above)</t>
+  </si>
+  <si>
+    <t>6. Indeterminate</t>
+  </si>
+  <si>
+    <t>1. Thin – up to 2mm thick (judge don’t measure)</t>
+  </si>
+  <si>
+    <t>na</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,14 +146,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -170,7 +192,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -202,27 +224,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,24 +258,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -447,16 +433,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,6 +467,61 @@
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>2053</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data_entry.xlsx
+++ b/data_entry.xlsx
@@ -1,108 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
-  <si>
-    <t>SF Number</t>
-  </si>
-  <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Post-deposition damage</t>
-  </si>
-  <si>
-    <t>Cortication type</t>
-  </si>
-  <si>
-    <t>Butt type</t>
-  </si>
-  <si>
-    <t>Cortex type</t>
-  </si>
-  <si>
-    <t>Cortex thickness</t>
-  </si>
-  <si>
-    <t>Other details</t>
-  </si>
-  <si>
-    <t>1066</t>
-  </si>
-  <si>
-    <t>Site 2</t>
-  </si>
-  <si>
-    <t>3. Bladelet</t>
-  </si>
-  <si>
-    <t>7. Microburin</t>
-  </si>
-  <si>
-    <t>1. Fresh</t>
-  </si>
-  <si>
-    <t>5. Plough damaged</t>
-  </si>
-  <si>
-    <t>2. Light cortication</t>
-  </si>
-  <si>
-    <t>1. No cortication</t>
-  </si>
-  <si>
-    <t>10. Indeterminate (if you can’t decide or it doesn’t fit any of the above)</t>
-  </si>
-  <si>
-    <t>6. Indeterminate</t>
-  </si>
-  <si>
-    <t>1. Thin – up to 2mm thick (judge don’t measure)</t>
-  </si>
-  <si>
-    <t>na</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -117,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -433,98 +420,808 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>SF Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Site</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Post-deposition damage</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Cortication type</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Butt type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Cortex type</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Cortex thickness</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Other details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>2053</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Site 2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3. Bladelet</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1. Fresh</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2. Light cortication</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10. Indeterminate (if you can’t decide or it doesn’t fit any of the above)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6. Indeterminate</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1. Thin – up to 2mm thick (judge don’t measure)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>na</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1066</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Site 2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>7. Microburin</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5. Plough damaged</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1. No cortication</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10. Indeterminate (if you can’t decide or it doesn’t fit any of the above)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6. Indeterminate</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1. Thin – up to 2mm thick (judge don’t measure)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1017</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Site 1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1. Flake</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1. Fresh</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2. Light cortication</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3. Dihedral (2 scars)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4. Rolled – typical beach pebble/ river gravel flint, smooth</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>4. Very thick, greater than 10mm</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1018</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Site 1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2. Blade</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1. Fresh</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2. Light cortication</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3. Dihedral (2 scars)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4. Rolled – typical beach pebble/ river gravel flint, smooth</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>4. Very thick, greater than 10mm</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>test2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1019</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Site 1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2. Blade</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1. Fresh</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2. Light cortication</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3. Dihedral (2 scars)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4. Rolled – typical beach pebble/ river gravel flint, smooth</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>4. Very thick, greater than 10mm</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>test3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1020</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Site 1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2. Blade</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1. Fresh</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2. Light cortication</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3. Dihedral (2 scars)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4. Rolled – typical beach pebble/ river gravel flint, smooth</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>4. Very thick, greater than 10mm</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>test4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Site 1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1. Flake</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1. Fresh</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2. Light cortication</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3. Dihedral (2 scars)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4. Rolled – typical beach pebble/ river gravel flint, smooth</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>4. Very thick, greater than 10mm</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>drhgh</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Site 1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1. Flake</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1. Fresh</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2. Light cortication</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3. Dihedral (2 scars)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4. Rolled – typical beach pebble/ river gravel flint, smooth</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>4. Very thick, greater than 10mm</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2035</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Site 1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2. Blade</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1. Fresh</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1. No cortication</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1. Cortical (cortex)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1. Chalk – thick, creamy white, chalky</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1. Thin – up to 2mm thick (judge don’t measure)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Site 1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1. Fresh</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1. No cortication</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1. Cortical (cortex)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1. Chalk – thick, creamy white, chalky</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1. Thin – up to 2mm thick (judge don’t measure)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2038</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Site 1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2. Blade</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1. Fresh</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1. No cortication</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1. Cortical (cortex)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1. Chalk – thick, creamy white, chalky</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1. Thin – up to 2mm thick (judge don’t measure)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Site 2</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1. Fresh</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1. No cortication</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1. Cortical (cortex)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1. Chalk – thick, creamy white, chalky</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1. Thin – up to 2mm thick (judge don’t measure)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>93458623495</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>45345</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Site 2</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2. Blade</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1. Fresh</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1. No cortication</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1. Cortical (cortex)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1. Chalk – thick, creamy white, chalky</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1. Thin – up to 2mm thick (judge don’t measure)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>3453453</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2035</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Site 2</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3. Bladelet</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1. Fresh</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2. Light cortication</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2. Plain (unaltered inner flint)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3. Weathered – Similar to WC above, will be rough to the touch but clearly ground down.</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2. Moderate 2-4mm thickness</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>rthsghsh</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>345234</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Site 1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2. Blade</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1. Fresh</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1. No cortication</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1. Cortical (cortex)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1. Chalk – thick, creamy white, chalky</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1. Thin – up to 2mm thick (judge don’t measure)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>42562456</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>234234</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Site 2</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3. Bladelet</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1. Fresh</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1. No cortication</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2. Plain (unaltered inner flint)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1. Chalk – thick, creamy white, chalky</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1. Thin – up to 2mm thick (judge don’t measure)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>234234</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2345345</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Site 1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>5. Irregular Waste</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1. Fresh</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2. Light cortication</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1. Cortical (cortex)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1. Chalk – thick, creamy white, chalky</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1. Thin – up to 2mm thick (judge don’t measure)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>34534</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>